--- a/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
+++ b/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
+++ b/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
@@ -52,7 +52,7 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t xml:space="preserve">The Corruption Perceptoins Index (CPI) scores and ranks countries based on how corrupt a country’s public sector is perceived to be. Corruption is very difficult to measure, because it usually happens in the dark. Thus, capturing perceptions of corruption is one of the most reliable methods of comparing relative corruption levels across countries. The CPI is a composite index, a combination of surveys and assessments of corruption, collected by a variety of reputable institutions. The CPI 2015 draws on data sources from independent institutions specialising in governance and business climate analysis. The sources of information used for the CPI 2015 are based on data gathered in 2013-2014. </t>
+    <t xml:space="preserve">The Corruption Perceptions Index (CPI) scores and ranks countries based on how corrupt a country’s public sector is perceived to be. Corruption is very difficult to measure, because it usually happens in the dark. Thus, capturing perceptions of corruption is one of the most reliable methods of comparing relative corruption levels across countries. The CPI is a composite index, a combination of surveys and assessments of corruption, collected by a variety of reputable institutions. The CPI 2015 draws on data sources from independent institutions specialising in governance and business climate analysis. The sources of information used for the CPI 2015 are based on data gathered in 2013-2014. </t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>

--- a/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
+++ b/datastatic/datasets/online/SDG16_Corruptionperception_TI_2015.xlsx
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
